--- a/client/data/work_schedule.xlsx
+++ b/client/data/work_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/java_prj/eliteblue-erp/client/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D18A76C-82D9-AB44-AF2A-FD852DDC8754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CA06CE-C9A9-4348-A027-BD2E62C6700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{7720A594-1E83-7147-A388-B07DC01BB18B}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="15000" xr2:uid="{7720A594-1E83-7147-A388-B07DC01BB18B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Detachment No:</t>
   </si>
@@ -79,6 +87,18 @@
   </si>
   <si>
     <t>= DAY OFF</t>
+  </si>
+  <si>
+    <t>= 24HR SHIFT</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>= ON LEAVE</t>
+  </si>
+  <si>
+    <t>H24</t>
   </si>
 </sst>
 </file>
@@ -258,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,7 +598,7 @@
   <dimension ref="A1:T125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,8 +746,12 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -778,8 +802,12 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
